--- a/data/plantillas/plantilla_ventas_productos.xlsx
+++ b/data/plantillas/plantilla_ventas_productos.xlsx
@@ -530,7 +530,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46055</v>
+        <v>46066</v>
       </c>
     </row>
   </sheetData>
